--- a/Stored_data/predictions.xlsx
+++ b/Stored_data/predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,530 +448,245 @@
           <t>Predicted Close</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Open</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted High</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Low</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45593</v>
+        <v>45637</v>
       </c>
       <c r="B2" t="n">
-        <v>65300.66015625</v>
-      </c>
-      <c r="C2" t="n">
-        <v>64647.65234375</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66606.671875</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63994.6484375</v>
+        <v>94273.8984375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45594</v>
+        <v>45638</v>
       </c>
       <c r="B3" t="n">
-        <v>64775.80078125</v>
-      </c>
-      <c r="C3" t="n">
-        <v>64128.04296875</v>
-      </c>
-      <c r="D3" t="n">
-        <v>66071.3125</v>
-      </c>
-      <c r="E3" t="n">
-        <v>63480.28515625</v>
+        <v>96246.5078125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45595</v>
+        <v>45639</v>
       </c>
       <c r="B4" t="n">
-        <v>64571.26171875</v>
-      </c>
-      <c r="C4" t="n">
-        <v>63925.55078125</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65862.6875</v>
-      </c>
-      <c r="E4" t="n">
-        <v>63279.8359375</v>
+        <v>94475.8125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45596</v>
+        <v>45640</v>
       </c>
       <c r="B5" t="n">
-        <v>64359.26953125</v>
-      </c>
-      <c r="C5" t="n">
-        <v>63715.67578125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65646.453125</v>
-      </c>
-      <c r="E5" t="n">
-        <v>63072.0859375</v>
+        <v>94725.6328125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45641</v>
       </c>
       <c r="B6" t="n">
-        <v>64327.671875</v>
-      </c>
-      <c r="C6" t="n">
-        <v>63684.39453125</v>
-      </c>
-      <c r="D6" t="n">
-        <v>65614.2265625</v>
-      </c>
-      <c r="E6" t="n">
-        <v>63041.12109375</v>
+        <v>94767.3125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45598</v>
+        <v>45642</v>
       </c>
       <c r="B7" t="n">
-        <v>64991.30078125</v>
-      </c>
-      <c r="C7" t="n">
-        <v>64341.38671875</v>
-      </c>
-      <c r="D7" t="n">
-        <v>66291.125</v>
-      </c>
-      <c r="E7" t="n">
-        <v>63691.4765625</v>
+        <v>97746.09375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45599</v>
+        <v>45643</v>
       </c>
       <c r="B8" t="n">
-        <v>65444.04296875</v>
-      </c>
-      <c r="C8" t="n">
-        <v>64789.6015625</v>
-      </c>
-      <c r="D8" t="n">
-        <v>66752.921875</v>
-      </c>
-      <c r="E8" t="n">
-        <v>64135.1640625</v>
+        <v>100998.3671875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45600</v>
+        <v>45644</v>
       </c>
       <c r="B9" t="n">
-        <v>65217.98828125</v>
-      </c>
-      <c r="C9" t="n">
-        <v>64565.80859375</v>
-      </c>
-      <c r="D9" t="n">
-        <v>66522.34375</v>
-      </c>
-      <c r="E9" t="n">
-        <v>63913.62890625</v>
+        <v>99536.6171875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45601</v>
+        <v>45645</v>
       </c>
       <c r="B10" t="n">
-        <v>64155.45703125</v>
-      </c>
-      <c r="C10" t="n">
-        <v>63513.90234375</v>
-      </c>
-      <c r="D10" t="n">
-        <v>65438.56640625</v>
-      </c>
-      <c r="E10" t="n">
-        <v>62872.34765625</v>
+        <v>99975.1171875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45602</v>
+        <v>45646</v>
       </c>
       <c r="B11" t="n">
-        <v>63721.1328125</v>
-      </c>
-      <c r="C11" t="n">
-        <v>63083.921875</v>
-      </c>
-      <c r="D11" t="n">
-        <v>64995.5546875</v>
-      </c>
-      <c r="E11" t="n">
-        <v>62446.7109375</v>
+        <v>97740.5859375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45603</v>
+        <v>45647</v>
       </c>
       <c r="B12" t="n">
-        <v>63128.55859375</v>
-      </c>
-      <c r="C12" t="n">
-        <v>62497.2734375</v>
-      </c>
-      <c r="D12" t="n">
-        <v>64391.12890625</v>
-      </c>
-      <c r="E12" t="n">
-        <v>61865.98828125</v>
+        <v>98688.6328125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45604</v>
+        <v>45648</v>
       </c>
       <c r="B13" t="n">
-        <v>62635.24609375</v>
-      </c>
-      <c r="C13" t="n">
-        <v>62008.89453125</v>
-      </c>
-      <c r="D13" t="n">
-        <v>63887.94921875</v>
-      </c>
-      <c r="E13" t="n">
-        <v>61382.54296875</v>
+        <v>97751.0078125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45605</v>
+        <v>45649</v>
       </c>
       <c r="B14" t="n">
-        <v>61835.8359375</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61217.4765625</v>
-      </c>
-      <c r="D14" t="n">
-        <v>63072.55078125</v>
-      </c>
-      <c r="E14" t="n">
-        <v>60599.12109375</v>
+        <v>96179.6796875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45606</v>
+        <v>45650</v>
       </c>
       <c r="B15" t="n">
-        <v>61543.4765625</v>
-      </c>
-      <c r="C15" t="n">
-        <v>60928.04296875</v>
-      </c>
-      <c r="D15" t="n">
-        <v>62774.34375</v>
-      </c>
-      <c r="E15" t="n">
-        <v>60312.609375</v>
+        <v>96498.890625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45651</v>
       </c>
       <c r="B16" t="n">
-        <v>61604.17578125</v>
-      </c>
-      <c r="C16" t="n">
-        <v>60988.1328125</v>
-      </c>
-      <c r="D16" t="n">
-        <v>62836.2578125</v>
-      </c>
-      <c r="E16" t="n">
-        <v>60372.09375</v>
+        <v>96922.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45608</v>
+        <v>45652</v>
       </c>
       <c r="B17" t="n">
-        <v>61017.05859375</v>
-      </c>
-      <c r="C17" t="n">
-        <v>60406.88671875</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62237.3984375</v>
-      </c>
-      <c r="E17" t="n">
-        <v>59796.71875</v>
+        <v>96388.7890625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45609</v>
+        <v>45653</v>
       </c>
       <c r="B18" t="n">
-        <v>60163.171875</v>
-      </c>
-      <c r="C18" t="n">
-        <v>59561.5390625</v>
-      </c>
-      <c r="D18" t="n">
-        <v>61366.43359375</v>
-      </c>
-      <c r="E18" t="n">
-        <v>58959.91015625</v>
+        <v>98682.578125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45610</v>
+        <v>45654</v>
       </c>
       <c r="B19" t="n">
-        <v>59513.46484375</v>
-      </c>
-      <c r="C19" t="n">
-        <v>58918.33203125</v>
-      </c>
-      <c r="D19" t="n">
-        <v>60703.734375</v>
-      </c>
-      <c r="E19" t="n">
-        <v>58323.1953125</v>
+        <v>96806.4765625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45611</v>
+        <v>45655</v>
       </c>
       <c r="B20" t="n">
-        <v>58999.6328125</v>
-      </c>
-      <c r="C20" t="n">
-        <v>58409.63671875</v>
-      </c>
-      <c r="D20" t="n">
-        <v>60179.625</v>
-      </c>
-      <c r="E20" t="n">
-        <v>57819.640625</v>
+        <v>95159.7734375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45612</v>
+        <v>45656</v>
       </c>
       <c r="B21" t="n">
-        <v>58392.84765625</v>
-      </c>
-      <c r="C21" t="n">
-        <v>57808.91796875</v>
-      </c>
-      <c r="D21" t="n">
-        <v>59560.703125</v>
-      </c>
-      <c r="E21" t="n">
-        <v>57224.9921875</v>
+        <v>94852.546875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45613</v>
+        <v>45657</v>
       </c>
       <c r="B22" t="n">
-        <v>58416.87890625</v>
-      </c>
-      <c r="C22" t="n">
-        <v>57832.7109375</v>
-      </c>
-      <c r="D22" t="n">
-        <v>59585.21484375</v>
-      </c>
-      <c r="E22" t="n">
-        <v>57248.54296875</v>
+        <v>88086.0859375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45614</v>
+        <v>45658</v>
       </c>
       <c r="B23" t="n">
-        <v>57836.3203125</v>
-      </c>
-      <c r="C23" t="n">
-        <v>57257.95703125</v>
-      </c>
-      <c r="D23" t="n">
-        <v>58993.046875</v>
-      </c>
-      <c r="E23" t="n">
-        <v>56679.59375</v>
+        <v>89377.1796875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45615</v>
+        <v>45659</v>
       </c>
       <c r="B24" t="n">
-        <v>57036.1484375</v>
-      </c>
-      <c r="C24" t="n">
-        <v>56465.7890625</v>
-      </c>
-      <c r="D24" t="n">
-        <v>58176.87109375</v>
-      </c>
-      <c r="E24" t="n">
-        <v>55895.42578125</v>
+        <v>90414.6953125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45616</v>
+        <v>45660</v>
       </c>
       <c r="B25" t="n">
-        <v>56112.61328125</v>
-      </c>
-      <c r="C25" t="n">
-        <v>55551.48828125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>57234.86328125</v>
-      </c>
-      <c r="E25" t="n">
-        <v>54990.36328125</v>
+        <v>91298.703125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45617</v>
+        <v>45661</v>
       </c>
       <c r="B26" t="n">
-        <v>55641.96484375</v>
-      </c>
-      <c r="C26" t="n">
-        <v>55085.546875</v>
-      </c>
-      <c r="D26" t="n">
-        <v>56754.8046875</v>
-      </c>
-      <c r="E26" t="n">
-        <v>54529.125</v>
+        <v>90603.7578125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45618</v>
+        <v>45662</v>
       </c>
       <c r="B27" t="n">
-        <v>54709.703125</v>
-      </c>
-      <c r="C27" t="n">
-        <v>54162.60546875</v>
-      </c>
-      <c r="D27" t="n">
-        <v>55803.89453125</v>
-      </c>
-      <c r="E27" t="n">
-        <v>53615.51171875</v>
+        <v>89086.1640625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45619</v>
+        <v>45663</v>
       </c>
       <c r="B28" t="n">
-        <v>53640.6015625</v>
-      </c>
-      <c r="C28" t="n">
-        <v>53104.1953125</v>
-      </c>
-      <c r="D28" t="n">
-        <v>54713.4140625</v>
-      </c>
-      <c r="E28" t="n">
-        <v>52567.7890625</v>
+        <v>88370.34375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45620</v>
+        <v>45664</v>
       </c>
       <c r="B29" t="n">
-        <v>53160.09375</v>
-      </c>
-      <c r="C29" t="n">
-        <v>52628.4921875</v>
-      </c>
-      <c r="D29" t="n">
-        <v>54223.29296875</v>
-      </c>
-      <c r="E29" t="n">
-        <v>52096.89453125</v>
+        <v>88495.625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45621</v>
+        <v>45665</v>
       </c>
       <c r="B30" t="n">
-        <v>52580.30859375</v>
-      </c>
-      <c r="C30" t="n">
-        <v>52054.5078125</v>
-      </c>
-      <c r="D30" t="n">
-        <v>53631.9140625</v>
-      </c>
-      <c r="E30" t="n">
-        <v>51528.703125</v>
+        <v>87628.9453125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45622</v>
+        <v>45666</v>
       </c>
       <c r="B31" t="n">
-        <v>51745.9140625</v>
-      </c>
-      <c r="C31" t="n">
-        <v>51228.45703125</v>
-      </c>
-      <c r="D31" t="n">
-        <v>52780.83203125</v>
-      </c>
-      <c r="E31" t="n">
-        <v>50710.99609375</v>
+        <v>89040.46875</v>
       </c>
     </row>
   </sheetData>

--- a/Stored_data/predictions.xlsx
+++ b/Stored_data/predictions.xlsx
@@ -454,7 +454,7 @@
         <v>45637</v>
       </c>
       <c r="B2" t="n">
-        <v>94273.8984375</v>
+        <v>96114.71875</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45638</v>
       </c>
       <c r="B3" t="n">
-        <v>96246.5078125</v>
+        <v>92952.8359375</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45639</v>
       </c>
       <c r="B4" t="n">
-        <v>94475.8125</v>
+        <v>94609.1171875</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45640</v>
       </c>
       <c r="B5" t="n">
-        <v>94725.6328125</v>
+        <v>95639.625</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45641</v>
       </c>
       <c r="B6" t="n">
-        <v>94767.3125</v>
+        <v>95867.9140625</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45642</v>
       </c>
       <c r="B7" t="n">
-        <v>97746.09375</v>
+        <v>98496.4921875</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45643</v>
       </c>
       <c r="B8" t="n">
-        <v>100998.3671875</v>
+        <v>100936.5703125</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45644</v>
       </c>
       <c r="B9" t="n">
-        <v>99536.6171875</v>
+        <v>99280.96875</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45645</v>
       </c>
       <c r="B10" t="n">
-        <v>99975.1171875</v>
+        <v>101569.4140625</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45646</v>
       </c>
       <c r="B11" t="n">
-        <v>97740.5859375</v>
+        <v>98520.7734375</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45647</v>
       </c>
       <c r="B12" t="n">
-        <v>98688.6328125</v>
+        <v>101943.078125</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45648</v>
       </c>
       <c r="B13" t="n">
-        <v>97751.0078125</v>
+        <v>102481.8828125</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45649</v>
       </c>
       <c r="B14" t="n">
-        <v>96179.6796875</v>
+        <v>102133.8515625</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45650</v>
       </c>
       <c r="B15" t="n">
-        <v>96498.890625</v>
+        <v>100768.359375</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45651</v>
       </c>
       <c r="B16" t="n">
-        <v>96922.125</v>
+        <v>101596.65625</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45652</v>
       </c>
       <c r="B17" t="n">
-        <v>96388.7890625</v>
+        <v>100346.2734375</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45653</v>
       </c>
       <c r="B18" t="n">
-        <v>98682.578125</v>
+        <v>102568.390625</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45654</v>
       </c>
       <c r="B19" t="n">
-        <v>96806.4765625</v>
+        <v>102592.3984375</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45655</v>
       </c>
       <c r="B20" t="n">
-        <v>95159.7734375</v>
+        <v>103086.0859375</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45656</v>
       </c>
       <c r="B21" t="n">
-        <v>94852.546875</v>
+        <v>102460.3359375</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45657</v>
       </c>
       <c r="B22" t="n">
-        <v>88086.0859375</v>
+        <v>94385.0390625</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45658</v>
       </c>
       <c r="B23" t="n">
-        <v>89377.1796875</v>
+        <v>93632.03125</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45659</v>
       </c>
       <c r="B24" t="n">
-        <v>90414.6953125</v>
+        <v>94374.4296875</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45660</v>
       </c>
       <c r="B25" t="n">
-        <v>91298.703125</v>
+        <v>96103.9609375</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45661</v>
       </c>
       <c r="B26" t="n">
-        <v>90603.7578125</v>
+        <v>97011.6875</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45662</v>
       </c>
       <c r="B27" t="n">
-        <v>89086.1640625</v>
+        <v>96316.1875</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45663</v>
       </c>
       <c r="B28" t="n">
-        <v>88370.34375</v>
+        <v>95796.7109375</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45664</v>
       </c>
       <c r="B29" t="n">
-        <v>88495.625</v>
+        <v>93924.7578125</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45665</v>
       </c>
       <c r="B30" t="n">
-        <v>87628.9453125</v>
+        <v>94343.2578125</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45666</v>
       </c>
       <c r="B31" t="n">
-        <v>89040.46875</v>
+        <v>94852.5859375</v>
       </c>
     </row>
   </sheetData>
